--- a/Code/Results/Cases/Case_5_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.687334323027699</v>
+        <v>0.7466303911698731</v>
       </c>
       <c r="C2">
-        <v>0.3158231817097601</v>
+        <v>0.09815769476978176</v>
       </c>
       <c r="D2">
-        <v>0.03598047165974094</v>
+        <v>0.0599272770681285</v>
       </c>
       <c r="E2">
-        <v>1.378735620429509</v>
+        <v>0.4056186826292389</v>
       </c>
       <c r="F2">
-        <v>1.818566633987459</v>
+        <v>1.661456248505488</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.906300860356112</v>
+        <v>0.767741738778966</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.566914155140807</v>
+        <v>2.233450337813224</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.456929535887781</v>
+        <v>0.6889620168639681</v>
       </c>
       <c r="C3">
-        <v>0.2713488772405697</v>
+        <v>0.0865679908451682</v>
       </c>
       <c r="D3">
-        <v>0.03783207682021761</v>
+        <v>0.06025035040060445</v>
       </c>
       <c r="E3">
-        <v>1.178677952126648</v>
+        <v>0.3537967305260565</v>
       </c>
       <c r="F3">
-        <v>1.650534748040442</v>
+        <v>1.624321692453606</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.642787637872118</v>
+        <v>0.7010882620877226</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.553425084926161</v>
+        <v>2.231680028311615</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.317971546463781</v>
+        <v>0.6539997000339497</v>
       </c>
       <c r="C4">
-        <v>0.2445318155072869</v>
+        <v>0.07948822867972183</v>
       </c>
       <c r="D4">
-        <v>0.03899659880047146</v>
+        <v>0.06045457121038389</v>
       </c>
       <c r="E4">
-        <v>1.0589393527422</v>
+        <v>0.322097290657652</v>
       </c>
       <c r="F4">
-        <v>1.550983314693738</v>
+        <v>1.602408460569649</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.483860186643199</v>
+        <v>0.6606010198522654</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.54733595921644</v>
+        <v>2.231203198771254</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.261888960687145</v>
+        <v>0.6398634919544008</v>
       </c>
       <c r="C5">
-        <v>0.2337073438175281</v>
+        <v>0.07661200573544136</v>
       </c>
       <c r="D5">
-        <v>0.03947763304849694</v>
+        <v>0.06053925492397561</v>
       </c>
       <c r="E5">
-        <v>1.010799284049341</v>
+        <v>0.3092071012994069</v>
       </c>
       <c r="F5">
-        <v>1.511231759725447</v>
+        <v>1.593700552284275</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.41971413606484</v>
+        <v>0.644211038315575</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.54536570798291</v>
+        <v>2.231161623374504</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.252606928878976</v>
+        <v>0.6375228737719283</v>
       </c>
       <c r="C6">
-        <v>0.2319156738833499</v>
+        <v>0.07613493600779009</v>
       </c>
       <c r="D6">
-        <v>0.03955788775477309</v>
+        <v>0.06055340462221892</v>
       </c>
       <c r="E6">
-        <v>1.00284179410113</v>
+        <v>0.3070682905105286</v>
       </c>
       <c r="F6">
-        <v>1.504677766651412</v>
+        <v>1.592267976964834</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.409097216347817</v>
+        <v>0.6414960338223352</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.545068307911492</v>
+        <v>2.23116392465478</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.317213104858808</v>
+        <v>0.6538086051822631</v>
       </c>
       <c r="C7">
-        <v>0.2443854375760139</v>
+        <v>0.07944940354798291</v>
       </c>
       <c r="D7">
-        <v>0.0390030605102698</v>
+        <v>0.06045570737814465</v>
       </c>
       <c r="E7">
-        <v>1.058287624356481</v>
+        <v>0.3219233405378503</v>
       </c>
       <c r="F7">
-        <v>1.550444023647756</v>
+        <v>1.602290125848327</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.482992717795895</v>
+        <v>0.660379539616855</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.547307368931783</v>
+        <v>2.231202020588469</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.607314148624738</v>
+        <v>0.7266530778292122</v>
       </c>
       <c r="C8">
-        <v>0.3003742531557521</v>
+        <v>0.09415382904560943</v>
       </c>
       <c r="D8">
-        <v>0.03661286569054312</v>
+        <v>0.0600374522541518</v>
       </c>
       <c r="E8">
-        <v>1.309033471362596</v>
+        <v>0.3877241883698161</v>
       </c>
       <c r="F8">
-        <v>1.759818365561216</v>
+        <v>1.648467264238207</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.814780130591743</v>
+        <v>0.7446678458734937</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.561782416116571</v>
+        <v>2.232712878586483</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.200567050836355</v>
+        <v>0.8730959334046133</v>
       </c>
       <c r="C9">
-        <v>0.4150585586918112</v>
+        <v>0.1232930281187521</v>
       </c>
       <c r="D9">
-        <v>0.03217057169996451</v>
+        <v>0.05926411483215155</v>
       </c>
       <c r="E9">
-        <v>1.8317679377475</v>
+        <v>0.5178241206303795</v>
       </c>
       <c r="F9">
-        <v>2.203885024982313</v>
+        <v>1.746126653108647</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.493453547601518</v>
+        <v>0.9135028826585199</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.609610202573307</v>
+        <v>2.240549689117429</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.658337307291276</v>
+        <v>0.9829661082179086</v>
       </c>
       <c r="C10">
-        <v>0.5039014267360074</v>
+        <v>0.1449103022625309</v>
       </c>
       <c r="D10">
-        <v>0.02910095633857246</v>
+        <v>0.05872508360705453</v>
       </c>
       <c r="E10">
-        <v>2.245264353361506</v>
+        <v>0.6142289686525828</v>
       </c>
       <c r="F10">
-        <v>2.558100619954644</v>
+        <v>1.822307572166096</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.017547586819205</v>
+        <v>1.039816409272447</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.659839452394777</v>
+        <v>2.249326500605306</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.873207500963872</v>
+        <v>1.033463459535255</v>
       </c>
       <c r="C11">
-        <v>0.5457426075584522</v>
+        <v>0.1547951352413577</v>
       </c>
       <c r="D11">
-        <v>0.02776013550454515</v>
+        <v>0.05848632285574773</v>
       </c>
       <c r="E11">
-        <v>2.442666926975477</v>
+        <v>0.6583021958963542</v>
       </c>
       <c r="F11">
-        <v>2.72730646261337</v>
+        <v>1.85794842826283</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.263721458275313</v>
+        <v>1.097797327343415</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.686824214376003</v>
+        <v>2.253985464333553</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.955709622997063</v>
+        <v>1.052661201842398</v>
       </c>
       <c r="C12">
-        <v>0.5618346033102171</v>
+        <v>0.1585459907333586</v>
       </c>
       <c r="D12">
-        <v>0.02726187123010604</v>
+        <v>0.05839685001308581</v>
       </c>
       <c r="E12">
-        <v>2.519052611227835</v>
+        <v>0.675025915821152</v>
       </c>
       <c r="F12">
-        <v>2.792737534030124</v>
+        <v>1.87158808389924</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.358276179728591</v>
+        <v>1.119829758211495</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.697722311885144</v>
+        <v>2.255846352783593</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.937887606582137</v>
+        <v>1.048523248194897</v>
       </c>
       <c r="C13">
-        <v>0.5583571357424546</v>
+        <v>0.1577378295793039</v>
       </c>
       <c r="D13">
-        <v>0.02736873252170113</v>
+        <v>0.05841607753247402</v>
       </c>
       <c r="E13">
-        <v>2.50252361336166</v>
+        <v>0.6714226002893469</v>
       </c>
       <c r="F13">
-        <v>2.778582004248904</v>
+        <v>1.868644145615434</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.337848954349738</v>
+        <v>1.115081261622038</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.695343492079473</v>
+        <v>2.255441265881956</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.87997109870355</v>
+        <v>1.035041349615483</v>
       </c>
       <c r="C14">
-        <v>0.5470612734314955</v>
+        <v>0.1551035643823582</v>
       </c>
       <c r="D14">
-        <v>0.02771894335059599</v>
+        <v>0.05847894293854239</v>
       </c>
       <c r="E14">
-        <v>2.448916587668322</v>
+        <v>0.6596773660403557</v>
       </c>
       <c r="F14">
-        <v>2.732661099525586</v>
+        <v>1.859067691673545</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.271472424610465</v>
+        <v>1.099608410502867</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.687706654110599</v>
+        <v>2.254136619201191</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.844649325481555</v>
+        <v>1.026793163721038</v>
       </c>
       <c r="C15">
-        <v>0.5401758659870666</v>
+        <v>0.1534910119150652</v>
       </c>
       <c r="D15">
-        <v>0.02793474155511255</v>
+        <v>0.05851757273013902</v>
       </c>
       <c r="E15">
-        <v>2.416303215658374</v>
+        <v>0.6524876006740357</v>
       </c>
       <c r="F15">
-        <v>2.704716204171262</v>
+        <v>1.853220535252348</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.230995667090212</v>
+        <v>1.090140826052732</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.683120114910366</v>
+        <v>2.253350095344913</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.644443372127171</v>
+        <v>0.9796764873269694</v>
       </c>
       <c r="C16">
-        <v>0.5011991886911744</v>
+        <v>0.1442653614284097</v>
       </c>
       <c r="D16">
-        <v>0.02918981960705835</v>
+        <v>0.05874081806671327</v>
       </c>
       <c r="E16">
-        <v>2.232574884841895</v>
+        <v>0.6113533058149585</v>
       </c>
       <c r="F16">
-        <v>2.547221106709344</v>
+        <v>1.819998320978925</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.001633592696265</v>
+        <v>1.036037816693721</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.658166110976367</v>
+        <v>2.249035504825969</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.523442415907709</v>
+        <v>0.9509051354525013</v>
       </c>
       <c r="C17">
-        <v>0.4776817173529082</v>
+        <v>0.1386190373113152</v>
       </c>
       <c r="D17">
-        <v>0.02997495507567649</v>
+        <v>0.05887943262303708</v>
       </c>
       <c r="E17">
-        <v>2.122439939875207</v>
+        <v>0.5861765870147622</v>
       </c>
       <c r="F17">
-        <v>2.452800493488866</v>
+        <v>1.799871097025104</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.863059993437417</v>
+        <v>1.002981684275483</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.643973207614081</v>
+        <v>2.246559890815433</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.45445734265769</v>
+        <v>0.9344051926356087</v>
       </c>
       <c r="C18">
-        <v>0.4642864061003991</v>
+        <v>0.135376202824574</v>
       </c>
       <c r="D18">
-        <v>0.03043166746604697</v>
+        <v>0.05895976605164677</v>
       </c>
       <c r="E18">
-        <v>2.059948097781771</v>
+        <v>0.5717159718342941</v>
       </c>
       <c r="F18">
-        <v>2.399238648568357</v>
+        <v>1.788387145680247</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.784071757744812</v>
+        <v>0.9840175490617753</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.6361932686019</v>
+        <v>2.245198653261212</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.431200088370247</v>
+        <v>0.9288269036002248</v>
       </c>
       <c r="C19">
-        <v>0.4597723494286754</v>
+        <v>0.1342790456127148</v>
       </c>
       <c r="D19">
-        <v>0.03058714241415217</v>
+        <v>0.05898706924660502</v>
       </c>
       <c r="E19">
-        <v>2.038928092184605</v>
+        <v>0.5668232704412475</v>
       </c>
       <c r="F19">
-        <v>2.381226227933539</v>
+        <v>1.784514752793427</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.757444499958098</v>
+        <v>0.9776049682323276</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.633622591402982</v>
+        <v>2.244748500457916</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.536258655485824</v>
+        <v>0.9539628589747053</v>
       </c>
       <c r="C20">
-        <v>0.4801713148880253</v>
+        <v>0.1392196007602138</v>
       </c>
       <c r="D20">
-        <v>0.02989083612985866</v>
+        <v>0.05886461405390975</v>
       </c>
       <c r="E20">
-        <v>2.134073543233725</v>
+        <v>0.5888545637521077</v>
       </c>
       <c r="F20">
-        <v>2.462773155332073</v>
+        <v>1.802004070107586</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.877735851127653</v>
+        <v>1.006495496531556</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.645443807476354</v>
+        <v>2.246816932184302</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.896950171240348</v>
+        <v>1.038999251794678</v>
       </c>
       <c r="C21">
-        <v>0.5503720464662081</v>
+        <v>0.1558771006026518</v>
       </c>
       <c r="D21">
-        <v>0.02761580721021772</v>
+        <v>0.05846045220395091</v>
       </c>
       <c r="E21">
-        <v>2.464615296870548</v>
+        <v>0.6631262770471551</v>
       </c>
       <c r="F21">
-        <v>2.746110655046721</v>
+        <v>1.861876628974812</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.290930706479173</v>
+        <v>1.104151078642758</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.689930592462929</v>
+        <v>2.254517196181041</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.139407382966112</v>
+        <v>1.095016030675538</v>
       </c>
       <c r="C22">
-        <v>0.59772091950083</v>
+        <v>0.1668086914583569</v>
       </c>
       <c r="D22">
-        <v>0.02618513234394015</v>
+        <v>0.05820179872321063</v>
       </c>
       <c r="E22">
-        <v>2.690345768122128</v>
+        <v>0.7118674783994976</v>
       </c>
       <c r="F22">
-        <v>2.939308891364448</v>
+        <v>1.901842408072923</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.568880571289924</v>
+        <v>1.168420190436166</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.723015821389851</v>
+        <v>2.260113444487786</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.009320173134881</v>
+        <v>1.065078116239022</v>
       </c>
       <c r="C23">
-        <v>0.5722995665505266</v>
+        <v>0.1609700666752758</v>
       </c>
       <c r="D23">
-        <v>0.02694298315481269</v>
+        <v>0.05833934002416008</v>
       </c>
       <c r="E23">
-        <v>2.568868295859076</v>
+        <v>0.6858341230853</v>
       </c>
       <c r="F23">
-        <v>2.835388458581576</v>
+        <v>1.880434965373809</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.419728958072028</v>
+        <v>1.13407728458003</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.704958962862776</v>
+        <v>2.257074770686316</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.530462640430642</v>
+        <v>0.9525803342702375</v>
       </c>
       <c r="C24">
-        <v>0.479045381003175</v>
+        <v>0.1389480757363799</v>
       </c>
       <c r="D24">
-        <v>0.02992884981964039</v>
+        <v>0.05887131152912239</v>
       </c>
       <c r="E24">
-        <v>2.128811439272411</v>
+        <v>0.5876438076756614</v>
       </c>
       <c r="F24">
-        <v>2.458262280991192</v>
+        <v>1.801039480657337</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.871098795154154</v>
+        <v>1.004906776677615</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.644777772694965</v>
+        <v>2.246700530616991</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.036793853125005</v>
+        <v>0.8330854769858433</v>
       </c>
       <c r="C25">
-        <v>0.3833575018178408</v>
+        <v>0.1153751661605327</v>
       </c>
       <c r="D25">
-        <v>0.03334206868693457</v>
+        <v>0.05946824915581317</v>
       </c>
       <c r="E25">
-        <v>1.686043630832117</v>
+        <v>0.4824970907171462</v>
       </c>
       <c r="F25">
-        <v>2.079447485959591</v>
+        <v>1.718936341768142</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.306052886172409</v>
+        <v>0.8674377740411785</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.5942812327838</v>
+        <v>2.23790292703822</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7466303911698731</v>
+        <v>1.687334323027613</v>
       </c>
       <c r="C2">
-        <v>0.09815769476978176</v>
+        <v>0.3158231817092201</v>
       </c>
       <c r="D2">
-        <v>0.0599272770681285</v>
+        <v>0.03598047165973561</v>
       </c>
       <c r="E2">
-        <v>0.4056186826292389</v>
+        <v>1.378735620429453</v>
       </c>
       <c r="F2">
-        <v>1.661456248505488</v>
+        <v>1.818566633987459</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.767741738778966</v>
+        <v>1.906300860355998</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.233450337813224</v>
+        <v>1.566914155140879</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6889620168639681</v>
+        <v>1.456929535887809</v>
       </c>
       <c r="C3">
-        <v>0.0865679908451682</v>
+        <v>0.2713488772405697</v>
       </c>
       <c r="D3">
-        <v>0.06025035040060445</v>
+        <v>0.03783207682010392</v>
       </c>
       <c r="E3">
-        <v>0.3537967305260565</v>
+        <v>1.178677952126648</v>
       </c>
       <c r="F3">
-        <v>1.624321692453606</v>
+        <v>1.650534748040442</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7010882620877226</v>
+        <v>1.642787637872033</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.231680028311615</v>
+        <v>1.553425084926218</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6539997000339497</v>
+        <v>1.317971546463895</v>
       </c>
       <c r="C4">
-        <v>0.07948822867972183</v>
+        <v>0.2445318155070026</v>
       </c>
       <c r="D4">
-        <v>0.06045457121038389</v>
+        <v>0.03899659880036133</v>
       </c>
       <c r="E4">
-        <v>0.322097290657652</v>
+        <v>1.058939352742215</v>
       </c>
       <c r="F4">
-        <v>1.602408460569649</v>
+        <v>1.550983314693752</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6606010198522654</v>
+        <v>1.483860186643113</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.231203198771254</v>
+        <v>1.547335959216397</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6398634919544008</v>
+        <v>1.26188896068723</v>
       </c>
       <c r="C5">
-        <v>0.07661200573544136</v>
+        <v>0.233707343817656</v>
       </c>
       <c r="D5">
-        <v>0.06053925492397561</v>
+        <v>0.03947763304862306</v>
       </c>
       <c r="E5">
-        <v>0.3092071012994069</v>
+        <v>1.010799284049341</v>
       </c>
       <c r="F5">
-        <v>1.593700552284275</v>
+        <v>1.511231759725419</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.644211038315575</v>
+        <v>1.419714136064783</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.231161623374504</v>
+        <v>1.545365707982839</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6375228737719283</v>
+        <v>1.252606928878947</v>
       </c>
       <c r="C6">
-        <v>0.07613493600779009</v>
+        <v>0.2319156738832504</v>
       </c>
       <c r="D6">
-        <v>0.06055340462221892</v>
+        <v>0.03955788775465763</v>
       </c>
       <c r="E6">
-        <v>0.3070682905105286</v>
+        <v>1.002841794101116</v>
       </c>
       <c r="F6">
-        <v>1.592267976964834</v>
+        <v>1.504677766651412</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6414960338223352</v>
+        <v>1.409097216347789</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.23116392465478</v>
+        <v>1.545068307911563</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6538086051822631</v>
+        <v>1.31721310485861</v>
       </c>
       <c r="C7">
-        <v>0.07944940354798291</v>
+        <v>0.2443854375758718</v>
       </c>
       <c r="D7">
-        <v>0.06045570737814465</v>
+        <v>0.03900306051024671</v>
       </c>
       <c r="E7">
-        <v>0.3219233405378503</v>
+        <v>1.058287624356495</v>
       </c>
       <c r="F7">
-        <v>1.602290125848327</v>
+        <v>1.550444023647714</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.660379539616855</v>
+        <v>1.482992717795923</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.231202020588469</v>
+        <v>1.54730736893174</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7266530778292122</v>
+        <v>1.607314148624738</v>
       </c>
       <c r="C8">
-        <v>0.09415382904560943</v>
+        <v>0.3003742531558942</v>
       </c>
       <c r="D8">
-        <v>0.0600374522541518</v>
+        <v>0.03661286569065147</v>
       </c>
       <c r="E8">
-        <v>0.3877241883698161</v>
+        <v>1.309033471362639</v>
       </c>
       <c r="F8">
-        <v>1.648467264238207</v>
+        <v>1.759818365561216</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7446678458734937</v>
+        <v>1.814780130591629</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.232712878586483</v>
+        <v>1.561782416116529</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8730959334046133</v>
+        <v>2.200567050836469</v>
       </c>
       <c r="C9">
-        <v>0.1232930281187521</v>
+        <v>0.4150585586918112</v>
       </c>
       <c r="D9">
-        <v>0.05926411483215155</v>
+        <v>0.03217057169996096</v>
       </c>
       <c r="E9">
-        <v>0.5178241206303795</v>
+        <v>1.831767937747458</v>
       </c>
       <c r="F9">
-        <v>1.746126653108647</v>
+        <v>2.203885024982327</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9135028826585199</v>
+        <v>2.493453547601405</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.240549689117429</v>
+        <v>1.609610202573251</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9829661082179086</v>
+        <v>2.65833730729139</v>
       </c>
       <c r="C10">
-        <v>0.1449103022625309</v>
+        <v>0.5039014267358368</v>
       </c>
       <c r="D10">
-        <v>0.05872508360705453</v>
+        <v>0.02910095633856891</v>
       </c>
       <c r="E10">
-        <v>0.6142289686525828</v>
+        <v>2.245264353361478</v>
       </c>
       <c r="F10">
-        <v>1.822307572166096</v>
+        <v>2.558100619954644</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.039816409272447</v>
+        <v>3.017547586819177</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.249326500605306</v>
+        <v>1.659839452394749</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.033463459535255</v>
+        <v>2.873207500964043</v>
       </c>
       <c r="C11">
-        <v>0.1547951352413577</v>
+        <v>0.5457426075579974</v>
       </c>
       <c r="D11">
-        <v>0.05848632285574773</v>
+        <v>0.02776013550442435</v>
       </c>
       <c r="E11">
-        <v>0.6583021958963542</v>
+        <v>2.442666926975534</v>
       </c>
       <c r="F11">
-        <v>1.85794842826283</v>
+        <v>2.727306462613399</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.097797327343415</v>
+        <v>3.263721458275256</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.253985464333553</v>
+        <v>1.686824214375974</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.052661201842398</v>
+        <v>2.955709622996949</v>
       </c>
       <c r="C12">
-        <v>0.1585459907333586</v>
+        <v>0.5618346033102171</v>
       </c>
       <c r="D12">
-        <v>0.05839685001308581</v>
+        <v>0.02726187123023571</v>
       </c>
       <c r="E12">
-        <v>0.675025915821152</v>
+        <v>2.519052611227806</v>
       </c>
       <c r="F12">
-        <v>1.87158808389924</v>
+        <v>2.792737534030096</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.119829758211495</v>
+        <v>3.358276179728705</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.255846352783593</v>
+        <v>1.697722311885173</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.048523248194897</v>
+        <v>2.937887606582194</v>
       </c>
       <c r="C13">
-        <v>0.1577378295793039</v>
+        <v>0.5583571357422272</v>
       </c>
       <c r="D13">
-        <v>0.05841607753247402</v>
+        <v>0.02736873252147376</v>
       </c>
       <c r="E13">
-        <v>0.6714226002893469</v>
+        <v>2.502523613361646</v>
       </c>
       <c r="F13">
-        <v>1.868644145615434</v>
+        <v>2.778582004248875</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.115081261622038</v>
+        <v>3.337848954349795</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.255441265881956</v>
+        <v>1.69534349207953</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.035041349615483</v>
+        <v>2.879971098703493</v>
       </c>
       <c r="C14">
-        <v>0.1551035643823582</v>
+        <v>0.5470612734315239</v>
       </c>
       <c r="D14">
-        <v>0.05847894293854239</v>
+        <v>0.02771894335084291</v>
       </c>
       <c r="E14">
-        <v>0.6596773660403557</v>
+        <v>2.448916587668393</v>
       </c>
       <c r="F14">
-        <v>1.859067691673545</v>
+        <v>2.732661099525586</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.099608410502867</v>
+        <v>3.271472424610579</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.254136619201191</v>
+        <v>1.687706654110571</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.026793163721038</v>
+        <v>2.844649325481555</v>
       </c>
       <c r="C15">
-        <v>0.1534910119150652</v>
+        <v>0.5401758659869813</v>
       </c>
       <c r="D15">
-        <v>0.05851757273013902</v>
+        <v>0.02793474155511078</v>
       </c>
       <c r="E15">
-        <v>0.6524876006740357</v>
+        <v>2.416303215658431</v>
       </c>
       <c r="F15">
-        <v>1.853220535252348</v>
+        <v>2.704716204171234</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.090140826052732</v>
+        <v>3.230995667090212</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.253350095344913</v>
+        <v>1.683120114910366</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9796764873269694</v>
+        <v>2.644443372127284</v>
       </c>
       <c r="C16">
-        <v>0.1442653614284097</v>
+        <v>0.5011991886911744</v>
       </c>
       <c r="D16">
-        <v>0.05874081806671327</v>
+        <v>0.02918981960717204</v>
       </c>
       <c r="E16">
-        <v>0.6113533058149585</v>
+        <v>2.232574884841895</v>
       </c>
       <c r="F16">
-        <v>1.819998320978925</v>
+        <v>2.547221106709344</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.036037816693721</v>
+        <v>3.00163359269618</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.249035504825969</v>
+        <v>1.658166110976339</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9509051354525013</v>
+        <v>2.523442415907653</v>
       </c>
       <c r="C17">
-        <v>0.1386190373113152</v>
+        <v>0.4776817173529366</v>
       </c>
       <c r="D17">
-        <v>0.05887943262303708</v>
+        <v>0.02997495507579018</v>
       </c>
       <c r="E17">
-        <v>0.5861765870147622</v>
+        <v>2.122439939875221</v>
       </c>
       <c r="F17">
-        <v>1.799871097025104</v>
+        <v>2.452800493488866</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.002981684275483</v>
+        <v>2.863059993437389</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.246559890815433</v>
+        <v>1.643973207614096</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9344051926356087</v>
+        <v>2.454457342657747</v>
       </c>
       <c r="C18">
-        <v>0.135376202824574</v>
+        <v>0.4642864061001433</v>
       </c>
       <c r="D18">
-        <v>0.05895976605164677</v>
+        <v>0.03043166746613046</v>
       </c>
       <c r="E18">
-        <v>0.5717159718342941</v>
+        <v>2.059948097781785</v>
       </c>
       <c r="F18">
-        <v>1.788387145680247</v>
+        <v>2.399238648568343</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9840175490617753</v>
+        <v>2.784071757744812</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.245198653261212</v>
+        <v>1.636193268601872</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9288269036002248</v>
+        <v>2.431200088370076</v>
       </c>
       <c r="C19">
-        <v>0.1342790456127148</v>
+        <v>0.4597723494282207</v>
       </c>
       <c r="D19">
-        <v>0.05898706924660502</v>
+        <v>0.03058714241416283</v>
       </c>
       <c r="E19">
-        <v>0.5668232704412475</v>
+        <v>2.038928092184662</v>
       </c>
       <c r="F19">
-        <v>1.784514752793427</v>
+        <v>2.381226227933539</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9776049682323276</v>
+        <v>2.757444499958012</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.244748500457916</v>
+        <v>1.633622591402911</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9539628589747053</v>
+        <v>2.536258655485597</v>
       </c>
       <c r="C20">
-        <v>0.1392196007602138</v>
+        <v>0.4801713148880538</v>
       </c>
       <c r="D20">
-        <v>0.05886461405390975</v>
+        <v>0.02989083613008248</v>
       </c>
       <c r="E20">
-        <v>0.5888545637521077</v>
+        <v>2.134073543233754</v>
       </c>
       <c r="F20">
-        <v>1.802004070107586</v>
+        <v>2.462773155332073</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.006495496531556</v>
+        <v>2.877735851127682</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.246816932184302</v>
+        <v>1.645443807476383</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.038999251794678</v>
+        <v>2.896950171240519</v>
       </c>
       <c r="C21">
-        <v>0.1558771006026518</v>
+        <v>0.5503720464664354</v>
       </c>
       <c r="D21">
-        <v>0.05846045220395091</v>
+        <v>0.02761580721032431</v>
       </c>
       <c r="E21">
-        <v>0.6631262770471551</v>
+        <v>2.464615296870548</v>
       </c>
       <c r="F21">
-        <v>1.861876628974812</v>
+        <v>2.746110655046692</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.104151078642758</v>
+        <v>3.290930706479344</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.254517196181041</v>
+        <v>1.689930592462957</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.095016030675538</v>
+        <v>3.139407382966112</v>
       </c>
       <c r="C22">
-        <v>0.1668086914583569</v>
+        <v>0.5977209195008015</v>
       </c>
       <c r="D22">
-        <v>0.05820179872321063</v>
+        <v>0.0261851323438389</v>
       </c>
       <c r="E22">
-        <v>0.7118674783994976</v>
+        <v>2.690345768122128</v>
       </c>
       <c r="F22">
-        <v>1.901842408072923</v>
+        <v>2.939308891364419</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.168420190436166</v>
+        <v>3.56888057128981</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.260113444487786</v>
+        <v>1.723015821389936</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.065078116239022</v>
+        <v>3.009320173134995</v>
       </c>
       <c r="C23">
-        <v>0.1609700666752758</v>
+        <v>0.5722995665509245</v>
       </c>
       <c r="D23">
-        <v>0.05833934002416008</v>
+        <v>0.02694298315503829</v>
       </c>
       <c r="E23">
-        <v>0.6858341230853</v>
+        <v>2.56886829585909</v>
       </c>
       <c r="F23">
-        <v>1.880434965373809</v>
+        <v>2.835388458581548</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.13407728458003</v>
+        <v>3.419728958072085</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.257074770686316</v>
+        <v>1.704958962862776</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9525803342702375</v>
+        <v>2.530462640430756</v>
       </c>
       <c r="C24">
-        <v>0.1389480757363799</v>
+        <v>0.4790453810029192</v>
       </c>
       <c r="D24">
-        <v>0.05887131152912239</v>
+        <v>0.02992884981978428</v>
       </c>
       <c r="E24">
-        <v>0.5876438076756614</v>
+        <v>2.12881143927244</v>
       </c>
       <c r="F24">
-        <v>1.801039480657337</v>
+        <v>2.458262280991178</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.004906776677615</v>
+        <v>2.871098795154097</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.246700530616991</v>
+        <v>1.644777772694965</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8330854769858433</v>
+        <v>2.036793853125175</v>
       </c>
       <c r="C25">
-        <v>0.1153751661605327</v>
+        <v>0.3833575018179829</v>
       </c>
       <c r="D25">
-        <v>0.05946824915581317</v>
+        <v>0.03334206868702339</v>
       </c>
       <c r="E25">
-        <v>0.4824970907171462</v>
+        <v>1.686043630832117</v>
       </c>
       <c r="F25">
-        <v>1.718936341768142</v>
+        <v>2.079447485959605</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8674377740411785</v>
+        <v>2.306052886172409</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.23790292703822</v>
+        <v>1.594281232783842</v>
       </c>
       <c r="O25">
         <v>0</v>
